--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1864.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1864.xlsx
@@ -357,7 +357,7 @@
         <v>1.478430213394138</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>2.337163081700322</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1864.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1864.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2033124088637824</v>
+        <v>1.577122092247009</v>
       </c>
       <c r="B1">
-        <v>0.3477309689450895</v>
+        <v>2.665462493896484</v>
       </c>
       <c r="C1">
-        <v>1.478430213394138</v>
+        <v>3.001894950866699</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.820022344589233</v>
       </c>
       <c r="E1">
-        <v>2.337163081700322</v>
+        <v>3.233738422393799</v>
       </c>
     </row>
   </sheetData>
